--- a/biology/Médecine/1123_en_santé_et_médecine/1123_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1123_en_santé_et_médecine/1123_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1123_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1123_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1123 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1123_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1123_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation par Rahère, moine augustin, de St. Bartholomew's Hospital de Londres[1].
-Première mention de la léproserie des Deux-Eaux, à Bréviandes, près Troyes, dans une charte de Hugues Ier, comte de Champagne, où cet établissement est qualifié d'« antique[2] ».
-Une fondation hospitalière est documentée à Venise sous l'invocation de saint Gilles[3].
-1122-1123 : Barthélemy de Jur, évêque de Laon, en Picardie, fonde à La Neuville, faubourg de sa ville épiscopale, une maladrerie qui sera supprimée et dont les biens seront réunis à l'hôpital général en 1695[4],[5].
-1123-1132 : un hospice de l'ordre du Saint-Sépulcre est mentionné à Pise[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation par Rahère, moine augustin, de St. Bartholomew's Hospital de Londres.
+Première mention de la léproserie des Deux-Eaux, à Bréviandes, près Troyes, dans une charte de Hugues Ier, comte de Champagne, où cet établissement est qualifié d'« antique ».
+Une fondation hospitalière est documentée à Venise sous l'invocation de saint Gilles.
+1122-1123 : Barthélemy de Jur, évêque de Laon, en Picardie, fonde à La Neuville, faubourg de sa ville épiscopale, une maladrerie qui sera supprimée et dont les biens seront réunis à l'hôpital général en 1695,.
+1123-1132 : un hospice de l'ordre du Saint-Sépulcre est mentionné à Pise.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1123_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1123_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Mort de Marbode, né vers 1035, évêque de Rennes en Bretagne, auteur d'un De lapidibus « composé sans doute peu avant 1096 », où « il est traité accessoirement des vertus thérapeutiques des pierres[6] » et selon lequel, par exemple, la topaze est utile à la guérison des hémorroïdes, ou le cristal, favorable à la lactation des nourrices[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mort de Marbode, né vers 1035, évêque de Rennes en Bretagne, auteur d'un De lapidibus « composé sans doute peu avant 1096 », où « il est traité accessoirement des vertus thérapeutiques des pierres » et selon lequel, par exemple, la topaze est utile à la guérison des hémorroïdes, ou le cristal, favorable à la lactation des nourrices.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1123_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1123_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. André, médecin à l'abbaye d'Aniane en Languedoc[8].
-Fl. Hervé, médecin, cité dans une charte de l'abbaye Notre-Dame de Josaphat, près de Chartres[8].
-1123-entre 1152 et 1156 : fl. Richer, médecin, cité dans des chartes de l'abbaye Notre-Dame de Josaphat[6],[9]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. André, médecin à l'abbaye d'Aniane en Languedoc.
+Fl. Hervé, médecin, cité dans une charte de l'abbaye Notre-Dame de Josaphat, près de Chartres.
+1123-entre 1152 et 1156 : fl. Richer, médecin, cité dans des chartes de l'abbaye Notre-Dame de Josaphat,</t>
         </is>
       </c>
     </row>
